--- a/DataFolder/IPPB_EMP_Details.xlsx
+++ b/DataFolder/IPPB_EMP_Details.xlsx
@@ -1,42 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\USRLocalization\DataFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C5E9C3-A37F-4F00-BA67-8237E1A8379E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54E588C1-2B5A-4ED0-98EA-4518EC859B17}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="502">
   <si>
     <t>Empoyee name</t>
   </si>
@@ -44,23 +32,1511 @@
     <t>PMS Goal Plan Name</t>
   </si>
   <si>
-    <t>Autoemp@gmail.com</t>
-  </si>
-  <si>
-    <t>talent</t>
-  </si>
-  <si>
-    <t>Ranga@demo.com</t>
-  </si>
-  <si>
-    <t>Shukla@demo.com</t>
+    <t>kanav.kapoor@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sashikant.panda@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sunil.sasegh@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>giriraj.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>easwaran.v@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>r.viswesvaran@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>neeraj.kj@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>jvenkatramu@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>maanus.cg@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sana.ps@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>satyabrata.p@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sailesh.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>tushar.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>poulomi.b@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>asheet.a@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>gautam.m@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>chikkala.a@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>lokesh.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sandeep.ks@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>satyam.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>shankar.p@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>ankur.bhatt@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>makarand.ac@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>pankaj.ks@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sunny.db@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>nishant.c@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sunil.kr@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>deepika.u@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>greeshma.ur@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>prashant.ks@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>himanshu.v@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>hemant.l@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>rajender.m@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>pradeep.kn@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>ANANDA.SWAROOP@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sandip.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>karrebatthula.n@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>mukund.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>mukul.a@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>Priyanka.bhatnagar@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>amit.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>ranveer.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>shailesh.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>debarpan.d@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>manish.t@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>alkesh.y@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>anjali.r@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>amit.agrawal@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>anju.g@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>priyank.a@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>nikhil.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>mohankumar.n@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>poosarla.vs@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>Prashant.ds@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>shailendra.t@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>RAJENDRA.P@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sumit.b@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>ch.shobha@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>dhiren.mb@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>manoj.kv@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sajjan.g@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>jaipal@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sriram.b@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>yashodhi.p@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>shubham.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>santosh.km@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>RR.KARTHIKEYAN@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>abhirup.p@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>vivek.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>meenakshi.m@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>nitase.bp@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>daseesh.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>karthick@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sampath.d@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>shraddha.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>magesh.v@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>prateek.ma@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>vijay.p@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>guduru.nd@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>santosh.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>ikbal.ps@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sachase.kadam@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>pradeep.p@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>satyajit.t@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>arunkumar.r@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>vaseoth.ks@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>rishabh.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>amit.ku@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sarthak.m@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>rajiv.kd@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>kiran.d@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>atul.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>shashi.p@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>vikas.a@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>MANOHAR.l@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>pankaj.d@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>anupam.c@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>regal.scr@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>masegma.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>VaseAY.KUMAR@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>thatipi.ss@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>krishan.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>vivekanandan.m@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>maruthi.b@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>vikram.y@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>vikas.g@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>neli.r@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>raghav.g@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>ashish.ti@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>arun.m@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>korrapati.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>g.bharti@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>vijayudu.n@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sarathkumar.cs@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>vikas.j@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>bandi.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>akash@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>mohanasundaram.a@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>anushyuta.b@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>jithesh.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>amit.kr@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>anil.j@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sandeep.d@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>oruganti.ur@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>amit.km@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>badavatu.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>navneet.j@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>ankur.bishnoi@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sangeetha.j@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>anandhu.sb@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>nikhil.vs@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>brij.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sarabu.cs@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>amarjeet.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>jensy.sp@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>rohit.u@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>shivayogi.m@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>pankaj.p@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>ongole.v@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>p.akshay@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>rohit.vp@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>gaurav.y@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>divya.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>yogesh.pd@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>vishnu.w@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>Apurv.g@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>jaykiran.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sachase.p@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sandeep.a@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>pravase.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>ankur.g@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>tennety.vb@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>anshika.p@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>rajeshb@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>falguni.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>shilpa.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>SANTOSH.S@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>mayank.p@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>VIPase.HARDWARI@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>snehal.rm@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>somesh.p@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>abhay.mk@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sahil.mi@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>buckke.b@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>ar.saleem@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>nishant.y@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>MURUGESAN.M@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>jatasedra.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>deepak.tk@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>stephana.m@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>k.fabian@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>murali.s1@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>ganesh.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>Avaseash.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sourabh.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>mirza.moazzam@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>athira.ta@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>shasi.ks@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sibabrata.n@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>ABHISHEK.sa@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>ayush.g@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>RAVI.KUMAR@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>biraj.d@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>nikesh.p@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>SUNIL.K@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>swati.j@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>arasedom.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>rohan.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>krishna.p@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>kuldeep.z@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>I.MOALA@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>raja.kk@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>shalase@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>amarjeet.d@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>pramod.kd@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>vaseoth.kg@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>mridul.d@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>pritam.kum@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>meenu.c@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>rajesh.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>bhukya.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>BIRANCHI.M@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>jayant.ks@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>jimreaves.pm@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>govased.sasegh@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>Sanjeev.m@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>akshay.ps@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>arunkumar.a@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>durdundappa.g@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>simantika.p@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>anshul.p@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>gaurav.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>alphonse.rg@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>rose.a@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sameer.b@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>ravi.y@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>rahul.kr@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>surbhi.g@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>durgamadhab.p@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>ankita.sa@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>soumya.dp@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>satarupa.c@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>mohit.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>avaseish.g@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sushil.kum@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>gopaseath.r@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>shabdika@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>mohit.p@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>koluguri.r@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>b.shravani@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>ameya.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sakshi.m@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sudhakar.b@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>santhosh@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>raju.ba@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>saugata.h@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>dharmendra.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>donn.mz@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sandeep.saluja@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>nishant.t@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>BIJENDER.SaseGH@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>nitase.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>vishwanath.d@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>ujjawal.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>manish.gb@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>avni.g@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>rahul.kum4@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>manager_legal@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>davesh.ks@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>gajula.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>ratnesh.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>anurag.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>chandrakant.bz@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>rahul.kumar@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>mohammad.a@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>mrutyunjay.m@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>KAMAL.S@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>mukul.a1@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sandeep.t@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>ashish.kum@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>divya.m@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>abhishek.t@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>hp.shradhanjali@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>varun.d@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>chaitanya.c@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>dipunu.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>AMAAN.j@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>madhumohan.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sunil.kp@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sublesh.ks@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>nitul.g@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>anupam.am@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>debi.p@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>prakhar.g@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>vikash.kumar@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>navaneeth.kd@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>umesh.sb@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>puja.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sujit.kn@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>bharat.w@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>gitty.a@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sandeep.kum@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>santhoshbabu.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>krishna.kl@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>AMIT.KUMAR@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>prabhu.t@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>RAGHAVA.D@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>chebolu.cvk@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sraseidhi.t@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>lata.c@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>vaibhav.b@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>gracy.a@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>devasheesh.j@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>prashant.b@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>naveen.k1@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>samir.sk@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>aditya.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>abhijit.vj@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>avnish.a@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>murali.b@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>abhaseav.r@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sateesh.m@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>suresh.g@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>shiju.r@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>mithun.b@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>rishabh.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>prashanth.t@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>aakanksha.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>h.venkatakrishnan@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>chetan.j@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>SABase.M@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>chamala.rr@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>priyabrata.p@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>kumar.vikas@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>rahul.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>mandalreddy.rr@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>RAJESH.u@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>kavitha.b@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>nabase.cg@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>phaseoucky.a@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>ankit.ku@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>deeksha.p@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>jigar.mp@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>divyesh.u@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>subhasish.p@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>rajat.a@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>chandrakant.m@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>ranu.a@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sumit.si@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sisira.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>kethiboyasea.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>jayant.c@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>vijaya.n@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>MITUL.RAMESHKUMAR@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>pratik.v@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>nitesh.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>umesh.dp@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sonali.p@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>nidhi.r@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>yumnam.m@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>bibase.kb@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>akhil.g@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>gopalakrushna.b@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>tanmoy.m@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>milan.a@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>pravase.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>haritha.vn@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>anurag.r@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>smriti.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>abhishek.cho@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>raja.m@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>meet.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>pranay.r@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>jadhav.v@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>akashkumar.mw@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sreenath.hs@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>rajeesh.r@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>ashish.an@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>harish.c@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>devesh.a@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>govased.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>rajeev.a@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>subhankar.m@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>arsh.ac@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>saurabh.sasegh@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>mohan.c@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sachase.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>ankit.ks@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>hemant.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>rajesh.b@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sarika.ps@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>kanu.v@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>mukesh.l@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>csmo@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>vijyant.m@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>chandan.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>jaivardhan.sb@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>premananda.d@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>manish.kumar@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>tribhuvan.sasegh@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>shihas.b@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>mohase.m@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>gagan.kr@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>govardhan.jb@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>lal.st@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>ASIT.S@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>krishna.m@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>anoop.t@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>devarakonda.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>bhaskar.b@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>keshang.ws@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>kaustav.m@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>rajeev.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>rakesh.rp@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>mohan.sp@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>DEEPAK.cn@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>mukunda.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>v.nandan@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>utkarsh.c@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>prateek.m@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>aravased.m@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>krupa.nn@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>shivangi.m@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>abhaseav.ku@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>ramaseder.bs@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>moni.g@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>himanshu.j@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>mahesh.m@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>karasei.gk@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>suja.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>suraj.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>mahesh.de@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>cn.rajesh@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>kumar.manish@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>hari.pr@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>saiteja.l@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>SUNIL.K1@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>ANKUR.sr@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>anupam.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>vimal.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>siddhartha.d@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>himanshu.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>panthagiri.a@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>supratim.c@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>santhosh.kr@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>rajiv.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>vijai.sr@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>deepesh.l@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>prasece.rp@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>rahul.ku@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sraseivas.ka@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>rathase.d@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>PANDIYARAJAN.K@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>nishi.tomar@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sumitha.sp@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sahil.m@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>vigneshwaran.r@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>kishor.kk@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sriram.r@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>deepak.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>vedprakash.a@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>abhishek.sharma@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>manoj.j@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>b.anupma@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>dhanraj.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>naveen.kumar@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>chandan.a@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>rahul.kp@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>bholanath.b@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>suman.m@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>chetan.pm@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>kalluri.vsb@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sraseivas.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>prasanta.p@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>abhishek.n@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>basedu.r@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>pramod.kg@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>MOHIT.kg@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>vivek.b@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>saurabh.ku@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sumit.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>charupriya.ts@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>MURALI.S@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>pradeep.sc@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>jagjeet.m@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>ravi.shekhar@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>deepak.ks@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sudhakar.t@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>rajesh.TATIPAMULA@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>OMKAR.G@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>durgesh.km@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>pankaj.r@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>siddhartha.r@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>chasegtham.d@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>rohit.c@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>saravanan.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>jitendra.ks@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>rahul.d@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>neeraj.kum@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>deepak.gairola@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>pareshkumar.d@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>ashish@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>va.prasad@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>JAGADEESH.R@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>snehamoy.b@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>paritosh.b@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sangeeta.b@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sudhir.kv@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>dharmendra.saasei@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>simanta.d@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>neeraj.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>uppara.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>omnarayan.g@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>abilash@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>ABHISHEK.KUMAR@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>vetrivel@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>naveen.r@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>kadambari.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>raj.kd@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>ashish.kumar@cupoffline.ase</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,12 +1559,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF767676"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -110,12 +1580,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -127,10 +1612,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -466,20 +1955,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D366E0E7-5800-49A6-ADD2-EC0CF2E226D7}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="34.875" customWidth="1"/>
+    <col min="2" max="2" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,34 +1976,4009 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B5" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="28.5">
+      <c r="A36" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="28.5">
+      <c r="A41" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="28.5">
+      <c r="A68" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="28.5">
+      <c r="A119" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="28.5">
+      <c r="A160" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B167" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B170" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B171" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B174" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B175" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B176" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B177" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B178" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B179" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B180" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B181" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B182" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B183" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B184" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B185" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B186" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B188" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B189" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B190" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B191" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B192" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B193" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B194" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B195" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B196" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B197" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B198" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B199" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B200" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B201" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B202" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B203" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B205" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B206" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B208" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B209" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B210" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B211" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B212" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B213" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B214" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B215" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B216" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B217" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B218" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B219" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B220" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B221" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B222" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B223" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B224" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B225" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B226" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B227" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B228" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B229" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B230" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B231" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B232" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B233" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B234" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B235" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B236" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B237" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B238" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B239" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B240" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B241" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="28.5">
+      <c r="A242" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B242" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B243" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B244" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B245" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B246" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B247" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B248" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B249" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B250" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B251" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B252" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B253" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B254" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B255" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B256" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B257" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B258" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B259" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B260" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B261" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B262" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B263" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B264" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B265" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B266" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B267" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B268" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B269" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B270" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B271" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B272" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B273" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B274" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B275" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B276" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B277" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B278" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B279" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B280" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B281" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B282" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B283" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B284" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B285" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B286" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B287" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B288" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B289" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B290" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B291" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B292" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B293" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B294" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B295" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B296" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B297" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B298" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B299" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B300" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B301" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B302" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B303" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B304" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B305" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B306" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B307" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B308" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B309" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B310" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B311" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B312" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B313" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B314" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B315" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B316" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B317" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B318" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B319" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B320" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B321" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B322" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B323" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B324" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B325" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B326" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B327" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B328" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B329" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B330" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B331" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B332" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B333" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B334" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" ht="28.5">
+      <c r="A335" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B335" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B336" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B337" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B338" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B339" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B340" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B341" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B342" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B343" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B344" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B345" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B346" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B347" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B348" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B349" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B350" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B351" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B352" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B353" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B354" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B355" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B356" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B357" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B358" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B359" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B360" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B361" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B362" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B363" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B364" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B365" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B366" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B367" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B368" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B369" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B370" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B371" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B372" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B373" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B374" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B375" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B376" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B377" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B378" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B379" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B380" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B381" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B382" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B383" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B384" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B385" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B386" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="B387" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B388" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B389" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B390" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B391" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B392" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B393" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="B394" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B395" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="B396" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B397" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B398" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B399" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="B400" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B401" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="B402" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B403" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B404" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B405" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="B406" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B407" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B408" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B409" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B410" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B411" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B412" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B413" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B414" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B415" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B416" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B417" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="B418" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B419" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B420" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B421" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B422" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B423" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B424" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B425" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="B426" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B427" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B428" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="B429" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="B430" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="B431" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B432" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B433" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" ht="28.5">
+      <c r="A434" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B434" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B435" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B436" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B437" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="B438" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B439" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B440" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B441" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B442" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B443" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="B444" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B445" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B446" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B447" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B448" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B449" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B450" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B451" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B452" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B453" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B454" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B455" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B456" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B457" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="B458" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B459" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B460" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B461" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="B462" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B463" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B464" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B465" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B466" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B467" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="B468" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B469" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" ht="28.5">
+      <c r="A470" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B470" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B471" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="B472" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="B473" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B474" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="B475" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="B476" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="B477" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="B478" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B479" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="B480" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B481" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="B482" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B483" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="B484" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="B485" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B486" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B487" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B488" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B489" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" ht="28.5">
+      <c r="A490" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B490" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B491" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="B492" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="B493" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="B494" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="B495" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" ht="28.5">
+      <c r="A496" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="B496" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="B497" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="B498" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B499" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="B500" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="B501" s="3">
         <v>123</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{825735A5-3481-40E9-9F5B-D6576CD510B8}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{DB2BA992-CA21-4B44-B747-EF3DD5875598}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataFolder/IPPB_EMP_Details.xlsx
+++ b/DataFolder/IPPB_EMP_Details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\USRLocalization\DataFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42D9856-BD73-48E1-8B0B-3051FB59E10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CDC44E-6228-4FEB-A121-94EA45BED583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Empoyee name</t>
   </si>
@@ -33,17 +33,308 @@
     <t>PMS Goal Plan Name</t>
   </si>
   <si>
-    <t>manuc@gmail.com</t>
-  </si>
-  <si>
-    <t>ajantha@usrinfotech.com</t>
+    <t>kanav.kapoor@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sashikant.panda@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sunil.sasegh@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>giriraj.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>easwaran.v@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>r.viswesvaran@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>neeraj.kj@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>jvenkatramu@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>maanus.cg@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sana.ps@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>satyabrata.p@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sailesh.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>tushar.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>poulomi.b@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>asheet.a@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>gautam.m@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>chikkala.a@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>lokesh.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sandeep.ks@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>satyam.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>shankar.p@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>ankur.bhatt@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>makarand.ac@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>pankaj.ks@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sunny.db@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>nishant.c@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sunil.kr@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>deepika.u@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>greeshma.ur@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>prashant.ks@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>himanshu.v@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>hemant.l@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>rajender.m@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>pradeep.kn@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>ANANDA.SWAROOP@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sandip.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>karrebatthula.n@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>mukund.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>mukul.a@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>Priyanka.bhatnagar@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>amit.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>ranveer.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>shailesh.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>debarpan.d@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>manish.t@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>alkesh.y@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>anjali.r@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>amit.agrawal@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>anju.g@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>priyank.a@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>nikhil.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>mohankumar.n@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>poosarla.vs@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>Prashant.ds@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>shailendra.t@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>RAJENDRA.P@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sumit.b@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>ch.shobha@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>dhiren.mb@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>manoj.kv@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sajjan.g@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>jaipal@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sriram.b@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>yashodhi.p@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>shubham.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>santosh.km@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>RR.KARTHIKEYAN@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>abhirup.p@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>vivek.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>meenakshi.m@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>nitase.bp@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>daseesh.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>karthick@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sampath.d@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>shraddha.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>magesh.v@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>prateek.ma@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>vijay.p@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>guduru.nd@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>santosh.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>ikbal.ps@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sachase.kadam@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>pradeep.p@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>satyajit.t@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>arunkumar.r@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>vaseoth.ks@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>rishabh.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>amit.ku@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sarthak.m@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>rajiv.kd@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>kiran.d@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>atul.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>shashi.p@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>vikas.a@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>MANOHAR.l@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>pankaj.d@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>anupam.c@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>regal.scr@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>masegma.s@cupoffline.ase</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +345,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -79,7 +378,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -87,16 +386,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -429,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +772,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2">
@@ -458,14 +780,793 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>123</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{1A79517A-79E2-4D8E-84E6-4B280FBF72BC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DataFolder/IPPB_EMP_Details.xlsx
+++ b/DataFolder/IPPB_EMP_Details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\USRLocalization\DataFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C6E744-0B5B-4082-A8DC-509013EEFF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F028976-76F1-4D2D-A2D0-839043476AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Empoyee name</t>
   </si>
@@ -33,6 +33,261 @@
     <t>PMS Goal Plan Name</t>
   </si>
   <si>
+    <t>rishabh.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>amit.ku@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sarthak.m@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>rajiv.kd@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>kiran.d@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>atul.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>shashi.p@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>vikas.a@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>MANOHAR.l@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>pankaj.d@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>anupam.c@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>regal.scr@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>masegma.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>kanav.kapoor@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sashikant.panda@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sunil.sasegh@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>giriraj.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>easwaran.v@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>r.viswesvaran@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>neeraj.kj@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>jvenkatramu@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>maanus.cg@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sana.ps@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>satyabrata.p@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sailesh.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>tushar.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>poulomi.b@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>asheet.a@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>gautam.m@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>chikkala.a@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>lokesh.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sandeep.ks@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>satyam.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>shankar.p@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>ankur.bhatt@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>makarand.ac@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>pankaj.ks@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sunny.db@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>nishant.c@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sunil.kr@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>deepika.u@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>greeshma.ur@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>prashant.ks@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>himanshu.v@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>hemant.l@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>rajender.m@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>pradeep.kn@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>ANANDA.SWAROOP@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sandip.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>karrebatthula.n@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>mukund.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>mukul.a@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>Priyanka.bhatnagar@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>amit.k@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>ranveer.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>shailesh.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>debarpan.d@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>manish.t@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>alkesh.y@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>anjali.r@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>amit.agrawal@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>anju.g@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>priyank.a@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>nikhil.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>mohankumar.n@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>poosarla.vs@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>Prashant.ds@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>shailendra.t@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>RAJENDRA.P@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sumit.b@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>ch.shobha@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>dhiren.mb@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>manoj.kv@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sajjan.g@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>jaipal@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>sriram.b@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>yashodhi.p@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>shubham.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>santosh.km@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>RR.KARTHIKEYAN@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>abhirup.p@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>vivek.s@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>meenakshi.m@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>nitase.bp@cupoffline.ase</t>
+  </si>
+  <si>
+    <t>daseesh.k@cupoffline.ase</t>
+  </si>
+  <si>
     <t>karthick@cupoffline.ase</t>
   </si>
   <si>
@@ -73,265 +328,13 @@
   </si>
   <si>
     <t>vaseoth.ks@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>rishabh.k@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>amit.ku@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>sarthak.m@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>rajiv.kd@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>kiran.d@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>atul.k@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>shashi.p@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>vikas.a@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>MANOHAR.l@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>pankaj.d@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>anupam.c@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>regal.scr@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>masegma.s@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>sashikant.panda@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>sunil.sasegh@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>giriraj.s@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>easwaran.v@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>r.viswesvaran@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>neeraj.kj@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>jvenkatramu@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>maanus.cg@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>sana.ps@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>satyabrata.p@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>sailesh.s@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>tushar.s@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>poulomi.b@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>asheet.a@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>gautam.m@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>chikkala.a@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>lokesh.k@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>sandeep.ks@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>satyam.s@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>shankar.p@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>ankur.bhatt@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>makarand.ac@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>pankaj.ks@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>sunny.db@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>nishant.c@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>sunil.kr@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>deepika.u@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>greeshma.ur@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>prashant.ks@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>himanshu.v@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>hemant.l@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>rajender.m@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>pradeep.kn@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>ANANDA.SWAROOP@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>sandip.k@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>karrebatthula.n@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>mukund.s@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>mukul.a@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>Priyanka.bhatnagar@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>amit.k@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>ranveer.s@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>shailesh.s@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>debarpan.d@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>manish.t@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>alkesh.y@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>anjali.r@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>amit.agrawal@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>anju.g@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>priyank.a@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>nikhil.s@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>mohankumar.n@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>poosarla.vs@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>Prashant.ds@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>shailendra.t@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>RAJENDRA.P@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>sumit.b@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>ch.shobha@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>dhiren.mb@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>manoj.kv@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>sajjan.g@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>jaipal@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>sriram.b@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>yashodhi.p@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>shubham.s@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>santosh.km@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>RR.KARTHIKEYAN@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>abhirup.p@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>vivek.s@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>meenakshi.m@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>nitase.bp@cupoffline.ase</t>
-  </si>
-  <si>
-    <t>daseesh.k@cupoffline.ase</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,6 +354,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -397,18 +408,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -741,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B99"/>
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F115" sqref="F115"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,8 +778,8 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>29</v>
+      <c r="A2" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B2">
         <v>123</v>
@@ -771,7 +787,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>123</v>
@@ -779,7 +795,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>123</v>
@@ -787,7 +803,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>123</v>
@@ -795,7 +811,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>123</v>
@@ -803,7 +819,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>123</v>
@@ -811,7 +827,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>123</v>
@@ -819,7 +835,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>123</v>
@@ -827,7 +843,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>123</v>
@@ -835,7 +851,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>123</v>
@@ -843,7 +859,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>123</v>
@@ -851,7 +867,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>123</v>
@@ -859,7 +875,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>123</v>
@@ -867,7 +883,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>123</v>
@@ -875,7 +891,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>123</v>
@@ -883,7 +899,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>123</v>
@@ -891,7 +907,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>123</v>
@@ -899,7 +915,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>123</v>
@@ -907,7 +923,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B20">
         <v>123</v>
@@ -915,7 +931,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B21">
         <v>123</v>
@@ -923,7 +939,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B22">
         <v>123</v>
@@ -931,7 +947,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B23">
         <v>123</v>
@@ -939,7 +955,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B24">
         <v>123</v>
@@ -947,7 +963,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B25">
         <v>123</v>
@@ -955,7 +971,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B26">
         <v>123</v>
@@ -963,7 +979,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B27">
         <v>123</v>
@@ -971,7 +987,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B28">
         <v>123</v>
@@ -979,7 +995,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B29">
         <v>123</v>
@@ -987,7 +1003,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B30">
         <v>123</v>
@@ -995,7 +1011,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B31">
         <v>123</v>
@@ -1003,7 +1019,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B32">
         <v>123</v>
@@ -1011,7 +1027,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B33">
         <v>123</v>
@@ -1019,7 +1035,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B34">
         <v>123</v>
@@ -1027,7 +1043,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B35">
         <v>123</v>
@@ -1035,7 +1051,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B36">
         <v>123</v>
@@ -1043,7 +1059,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B37">
         <v>123</v>
@@ -1051,7 +1067,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B38">
         <v>123</v>
@@ -1059,7 +1075,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B39">
         <v>123</v>
@@ -1067,7 +1083,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B40">
         <v>123</v>
@@ -1075,7 +1091,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B41">
         <v>123</v>
@@ -1083,7 +1099,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B42">
         <v>123</v>
@@ -1091,7 +1107,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B43">
         <v>123</v>
@@ -1099,7 +1115,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B44">
         <v>123</v>
@@ -1107,7 +1123,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B45">
         <v>123</v>
@@ -1115,7 +1131,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B46">
         <v>123</v>
@@ -1123,7 +1139,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B47">
         <v>123</v>
@@ -1131,7 +1147,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B48">
         <v>123</v>
@@ -1139,7 +1155,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B49">
         <v>123</v>
@@ -1147,7 +1163,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B50">
         <v>123</v>
@@ -1155,7 +1171,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B51">
         <v>123</v>
@@ -1163,7 +1179,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B52">
         <v>123</v>
@@ -1171,7 +1187,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B53">
         <v>123</v>
@@ -1179,7 +1195,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B54">
         <v>123</v>
@@ -1187,7 +1203,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B55">
         <v>123</v>
@@ -1195,7 +1211,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B56">
         <v>123</v>
@@ -1203,7 +1219,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B57">
         <v>123</v>
@@ -1211,7 +1227,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B58">
         <v>123</v>
@@ -1219,7 +1235,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B59">
         <v>123</v>
@@ -1227,7 +1243,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B60">
         <v>123</v>
@@ -1235,7 +1251,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B61">
         <v>123</v>
@@ -1243,7 +1259,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B62">
         <v>123</v>
@@ -1251,7 +1267,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B63">
         <v>123</v>
@@ -1259,7 +1275,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B64">
         <v>123</v>
@@ -1267,7 +1283,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B65">
         <v>123</v>
@@ -1275,7 +1291,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B66">
         <v>123</v>
@@ -1283,7 +1299,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B67">
         <v>123</v>
@@ -1291,7 +1307,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B68">
         <v>123</v>
@@ -1299,7 +1315,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B69">
         <v>123</v>
@@ -1307,7 +1323,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B70">
         <v>123</v>
@@ -1315,7 +1331,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B71">
         <v>123</v>
@@ -1323,7 +1339,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B72">
         <v>123</v>
@@ -1331,7 +1347,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="B73">
         <v>123</v>
@@ -1339,7 +1355,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="B74">
         <v>123</v>
@@ -1347,7 +1363,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="B75">
         <v>123</v>
@@ -1355,7 +1371,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="B76">
         <v>123</v>
@@ -1363,7 +1379,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="B77">
         <v>123</v>
@@ -1371,7 +1387,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="B78">
         <v>123</v>
@@ -1379,7 +1395,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="B79">
         <v>123</v>
@@ -1387,7 +1403,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="B80">
         <v>123</v>
@@ -1395,7 +1411,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="B81">
         <v>123</v>
@@ -1403,7 +1419,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="B82">
         <v>123</v>
@@ -1411,7 +1427,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="B83">
         <v>123</v>
@@ -1419,7 +1435,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="B84">
         <v>123</v>
@@ -1427,7 +1443,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="B85">
         <v>123</v>
@@ -1435,7 +1451,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="B86">
         <v>123</v>
@@ -1443,7 +1459,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="B87">
         <v>123</v>
@@ -1451,7 +1467,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B88">
         <v>123</v>
@@ -1459,7 +1475,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B89">
         <v>123</v>
@@ -1467,7 +1483,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B90">
         <v>123</v>
@@ -1475,7 +1491,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B91">
         <v>123</v>
@@ -1483,7 +1499,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B92">
         <v>123</v>
@@ -1491,7 +1507,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B93">
         <v>123</v>
@@ -1499,7 +1515,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B94">
         <v>123</v>
@@ -1507,7 +1523,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B95">
         <v>123</v>
@@ -1515,7 +1531,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B96">
         <v>123</v>
@@ -1523,7 +1539,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B97">
         <v>123</v>
@@ -1531,7 +1547,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B98">
         <v>123</v>
@@ -1539,13 +1555,24 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B99">
         <v>123</v>
       </c>
     </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B100">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="mailto:kanav.kapoor@cupoffline.ase" xr:uid="{CD76942F-B2E2-47AD-BB33-8D02EC664419}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DataFolder/IPPB_EMP_Details.xlsx
+++ b/DataFolder/IPPB_EMP_Details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\USRLocalization\DataFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F028976-76F1-4D2D-A2D0-839043476AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41042E0-9EDB-45E6-9D1F-57164ED1FCAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -759,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
